--- a/data_year/zb/运输和邮电/沿海主要规模以上港口货物吞吐量.xlsx
+++ b/data_year/zb/运输和邮电/沿海主要规模以上港口货物吞吐量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1156 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20440</v>
+        <v>56320</v>
       </c>
       <c r="C2" t="n">
-        <v>378</v>
+        <v>893</v>
       </c>
       <c r="D2" t="n">
-        <v>9084</v>
+        <v>31399</v>
       </c>
       <c r="E2" t="n">
-        <v>9566</v>
+        <v>41325</v>
       </c>
       <c r="F2" t="n">
-        <v>11547</v>
+        <v>63300</v>
       </c>
       <c r="G2" t="n">
-        <v>11128</v>
+        <v>41095</v>
       </c>
       <c r="H2" t="n">
-        <v>2674</v>
+        <v>22597</v>
       </c>
       <c r="I2" t="n">
-        <v>1284</v>
+        <v>3509</v>
       </c>
       <c r="J2" t="n">
-        <v>125603</v>
+        <v>548358</v>
       </c>
       <c r="K2" t="n">
-        <v>808</v>
+        <v>5700</v>
       </c>
       <c r="L2" t="n">
-        <v>2038</v>
+        <v>13638</v>
       </c>
       <c r="M2" t="n">
-        <v>1774</v>
+        <v>15033</v>
       </c>
       <c r="N2" t="n">
-        <v>9743</v>
+        <v>26297</v>
       </c>
       <c r="O2" t="n">
-        <v>2268</v>
+        <v>22579</v>
       </c>
       <c r="P2" t="n">
-        <v>2708</v>
+        <v>12739</v>
       </c>
       <c r="Q2" t="n">
-        <v>8636</v>
+        <v>35012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22099</v>
+        <v>62432</v>
       </c>
       <c r="C3" t="n">
-        <v>342</v>
+        <v>997</v>
       </c>
       <c r="D3" t="n">
-        <v>10047</v>
+        <v>33691</v>
       </c>
       <c r="E3" t="n">
-        <v>11369</v>
+        <v>45338</v>
       </c>
       <c r="F3" t="n">
-        <v>12852</v>
+        <v>69393</v>
       </c>
       <c r="G3" t="n">
-        <v>12823</v>
+        <v>43149</v>
       </c>
       <c r="H3" t="n">
-        <v>2933</v>
+        <v>25260</v>
       </c>
       <c r="I3" t="n">
-        <v>1309</v>
+        <v>4005</v>
       </c>
       <c r="J3" t="n">
-        <v>142634</v>
+        <v>616292</v>
       </c>
       <c r="K3" t="n">
-        <v>888</v>
+        <v>6549</v>
       </c>
       <c r="L3" t="n">
-        <v>2205</v>
+        <v>15539</v>
       </c>
       <c r="M3" t="n">
-        <v>2190</v>
+        <v>18029</v>
       </c>
       <c r="N3" t="n">
-        <v>11302</v>
+        <v>28770</v>
       </c>
       <c r="O3" t="n">
-        <v>2520</v>
+        <v>26085</v>
       </c>
       <c r="P3" t="n">
-        <v>3058</v>
+        <v>15627</v>
       </c>
       <c r="Q3" t="n">
-        <v>10398</v>
+        <v>37230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26384</v>
+        <v>63740</v>
       </c>
       <c r="C4" t="n">
-        <v>343</v>
+        <v>1095</v>
       </c>
       <c r="D4" t="n">
-        <v>10851</v>
+        <v>37426</v>
       </c>
       <c r="E4" t="n">
-        <v>12906</v>
+        <v>47697</v>
       </c>
       <c r="F4" t="n">
-        <v>15398</v>
+        <v>74401</v>
       </c>
       <c r="G4" t="n">
-        <v>15324</v>
+        <v>43517</v>
       </c>
       <c r="H4" t="n">
-        <v>3136</v>
+        <v>28098</v>
       </c>
       <c r="I4" t="n">
-        <v>1380</v>
+        <v>4563</v>
       </c>
       <c r="J4" t="n">
-        <v>166628</v>
+        <v>665245</v>
       </c>
       <c r="K4" t="n">
-        <v>1073</v>
+        <v>7217</v>
       </c>
       <c r="L4" t="n">
-        <v>2627</v>
+        <v>17092</v>
       </c>
       <c r="M4" t="n">
-        <v>2689</v>
+        <v>20298</v>
       </c>
       <c r="N4" t="n">
-        <v>11167</v>
+        <v>27099</v>
       </c>
       <c r="O4" t="n">
-        <v>3127</v>
+        <v>30107</v>
       </c>
       <c r="P4" t="n">
-        <v>3316</v>
+        <v>17367</v>
       </c>
       <c r="Q4" t="n">
-        <v>12213</v>
+        <v>40690</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31621</v>
+        <v>68273.4115</v>
       </c>
       <c r="C5" t="n">
-        <v>425</v>
+        <v>1292.9874</v>
       </c>
       <c r="D5" t="n">
-        <v>12602</v>
+        <v>40746.2206</v>
       </c>
       <c r="E5" t="n">
-        <v>16182</v>
+        <v>50062.8832</v>
       </c>
       <c r="F5" t="n">
-        <v>18543</v>
+        <v>80978.3089</v>
       </c>
       <c r="G5" t="n">
-        <v>17187</v>
+        <v>45516.5664</v>
       </c>
       <c r="H5" t="n">
-        <v>4507</v>
+        <v>30937.2976</v>
       </c>
       <c r="I5" t="n">
-        <v>1470</v>
+        <v>5038</v>
       </c>
       <c r="J5" t="n">
-        <v>201126</v>
+        <v>728098</v>
       </c>
       <c r="K5" t="n">
-        <v>1329</v>
+        <v>8292.8851</v>
       </c>
       <c r="L5" t="n">
-        <v>2866</v>
+        <v>18006.1845</v>
       </c>
       <c r="M5" t="n">
-        <v>2936</v>
+        <v>22157.2458</v>
       </c>
       <c r="N5" t="n">
-        <v>12562</v>
+        <v>27260.3635</v>
       </c>
       <c r="O5" t="n">
-        <v>4009</v>
+        <v>32013.1257</v>
       </c>
       <c r="P5" t="n">
-        <v>3752</v>
+        <v>18897.6059</v>
       </c>
       <c r="Q5" t="n">
-        <v>14090</v>
+        <v>45002.5686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37896</v>
+        <v>66953.94010000001</v>
       </c>
       <c r="C6" t="n">
-        <v>548</v>
+        <v>1399.6111</v>
       </c>
       <c r="D6" t="n">
-        <v>14516</v>
+        <v>42336.8202</v>
       </c>
       <c r="E6" t="n">
-        <v>20619</v>
+        <v>54001.8291</v>
       </c>
       <c r="F6" t="n">
-        <v>22586</v>
+        <v>87346.46610000001</v>
       </c>
       <c r="G6" t="n">
-        <v>21520</v>
+        <v>48217.2533</v>
       </c>
       <c r="H6" t="n">
-        <v>5108</v>
+        <v>33501.6627</v>
       </c>
       <c r="I6" t="n">
-        <v>1576</v>
+        <v>5161</v>
       </c>
       <c r="J6" t="n">
-        <v>246074</v>
+        <v>769557</v>
       </c>
       <c r="K6" t="n">
-        <v>1416</v>
+        <v>8914.9496</v>
       </c>
       <c r="L6" t="n">
-        <v>3780</v>
+        <v>20238.1893</v>
       </c>
       <c r="M6" t="n">
-        <v>3431</v>
+        <v>23766.7295</v>
       </c>
       <c r="N6" t="n">
-        <v>15037</v>
+        <v>27403.1279</v>
       </c>
       <c r="O6" t="n">
-        <v>5978</v>
+        <v>33073.2536</v>
       </c>
       <c r="P6" t="n">
-        <v>4352</v>
+        <v>19637.5798</v>
       </c>
       <c r="Q6" t="n">
-        <v>16265</v>
+        <v>46802.1188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44317</v>
+        <v>64906</v>
       </c>
       <c r="C7" t="n">
-        <v>486</v>
+        <v>1767</v>
       </c>
       <c r="D7" t="n">
-        <v>17085</v>
+        <v>41482</v>
       </c>
       <c r="E7" t="n">
-        <v>24069</v>
+        <v>54051</v>
       </c>
       <c r="F7" t="n">
-        <v>26881</v>
+        <v>88929</v>
       </c>
       <c r="G7" t="n">
-        <v>25036</v>
+        <v>50053</v>
       </c>
       <c r="H7" t="n">
-        <v>8421</v>
+        <v>33707</v>
       </c>
       <c r="I7" t="n">
-        <v>1736</v>
+        <v>5181</v>
       </c>
       <c r="J7" t="n">
-        <v>292777</v>
+        <v>784578</v>
       </c>
       <c r="K7" t="n">
-        <v>2118</v>
+        <v>9204</v>
       </c>
       <c r="L7" t="n">
-        <v>4647</v>
+        <v>22036</v>
       </c>
       <c r="M7" t="n">
-        <v>4506</v>
+        <v>25163</v>
       </c>
       <c r="N7" t="n">
-        <v>16900</v>
+        <v>25309</v>
       </c>
       <c r="O7" t="n">
-        <v>7537</v>
+        <v>33849</v>
       </c>
       <c r="P7" t="n">
-        <v>6016</v>
+        <v>19756</v>
       </c>
       <c r="Q7" t="n">
-        <v>18678</v>
+        <v>48453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47040</v>
+        <v>64482</v>
       </c>
       <c r="C8" t="n">
-        <v>479</v>
+        <v>1516</v>
       </c>
       <c r="D8" t="n">
-        <v>20046</v>
+        <v>43660</v>
       </c>
       <c r="E8" t="n">
-        <v>25760</v>
+        <v>55056</v>
       </c>
       <c r="F8" t="n">
-        <v>42387</v>
+        <v>92209</v>
       </c>
       <c r="G8" t="n">
-        <v>30282</v>
+        <v>52254</v>
       </c>
       <c r="H8" t="n">
-        <v>11007</v>
+        <v>35007</v>
       </c>
       <c r="I8" t="n">
-        <v>2015</v>
+        <v>4985</v>
       </c>
       <c r="J8" t="n">
-        <v>342191</v>
+        <v>810933</v>
       </c>
       <c r="K8" t="n">
-        <v>2127</v>
+        <v>9952</v>
       </c>
       <c r="L8" t="n">
-        <v>5664</v>
+        <v>25612</v>
       </c>
       <c r="M8" t="n">
-        <v>6076</v>
+        <v>26537</v>
       </c>
       <c r="N8" t="n">
-        <v>20489</v>
+        <v>18682</v>
       </c>
       <c r="O8" t="n">
-        <v>9477</v>
+        <v>35217</v>
       </c>
       <c r="P8" t="n">
-        <v>7232</v>
+        <v>20082</v>
       </c>
       <c r="Q8" t="n">
-        <v>22415</v>
+        <v>50036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49227</v>
+        <v>70542</v>
       </c>
       <c r="C9" t="n">
-        <v>546</v>
+        <v>1605</v>
       </c>
       <c r="D9" t="n">
-        <v>22286</v>
+        <v>45517</v>
       </c>
       <c r="E9" t="n">
-        <v>30946</v>
+        <v>50056</v>
       </c>
       <c r="F9" t="n">
-        <v>47336</v>
+        <v>100933</v>
       </c>
       <c r="G9" t="n">
-        <v>34325</v>
+        <v>57003</v>
       </c>
       <c r="H9" t="n">
-        <v>13063</v>
+        <v>36136</v>
       </c>
       <c r="I9" t="n">
-        <v>2301</v>
+        <v>4890</v>
       </c>
       <c r="J9" t="n">
-        <v>388200</v>
+        <v>865464</v>
       </c>
       <c r="K9" t="n">
-        <v>2373</v>
+        <v>11297</v>
       </c>
       <c r="L9" t="n">
-        <v>6075</v>
+        <v>28209</v>
       </c>
       <c r="M9" t="n">
-        <v>10129</v>
+        <v>28816</v>
       </c>
       <c r="N9" t="n">
-        <v>24893</v>
+        <v>24520</v>
       </c>
       <c r="O9" t="n">
-        <v>12207</v>
+        <v>36267</v>
       </c>
       <c r="P9" t="n">
-        <v>8507</v>
+        <v>20605</v>
       </c>
       <c r="Q9" t="n">
-        <v>26502</v>
+        <v>51031</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50808</v>
+        <v>68392</v>
       </c>
       <c r="C10" t="n">
-        <v>554</v>
+        <v>1396</v>
       </c>
       <c r="D10" t="n">
-        <v>24588</v>
+        <v>46784</v>
       </c>
       <c r="E10" t="n">
-        <v>35593</v>
+        <v>50774</v>
       </c>
       <c r="F10" t="n">
-        <v>52048</v>
+        <v>108439</v>
       </c>
       <c r="G10" t="n">
-        <v>34700</v>
+        <v>59396</v>
       </c>
       <c r="H10" t="n">
-        <v>15102</v>
+        <v>43763</v>
       </c>
       <c r="I10" t="n">
-        <v>2806</v>
+        <v>3963</v>
       </c>
       <c r="J10" t="n">
-        <v>429599</v>
+        <v>922392</v>
       </c>
       <c r="K10" t="n">
-        <v>2614</v>
+        <v>11883</v>
       </c>
       <c r="L10" t="n">
-        <v>6682</v>
+        <v>30185</v>
       </c>
       <c r="M10" t="n">
-        <v>11189</v>
+        <v>44308</v>
       </c>
       <c r="N10" t="n">
-        <v>25231</v>
+        <v>23119</v>
       </c>
       <c r="O10" t="n">
-        <v>15085</v>
+        <v>37001</v>
       </c>
       <c r="P10" t="n">
-        <v>10060</v>
+        <v>21443</v>
       </c>
       <c r="Q10" t="n">
-        <v>30029</v>
+        <v>54250</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49467.4718</v>
+        <v>66351.32309999999</v>
       </c>
       <c r="C11" t="n">
-        <v>652.0001999999999</v>
+        <v>1506.962</v>
       </c>
       <c r="D11" t="n">
-        <v>27202.7975</v>
+        <v>36641.4167</v>
       </c>
       <c r="E11" t="n">
-        <v>38111.2693</v>
+        <v>49219.963</v>
       </c>
       <c r="F11" t="n">
-        <v>57684.3335</v>
+        <v>112008.6131</v>
       </c>
       <c r="G11" t="n">
-        <v>36395.4117</v>
+        <v>60615.8381</v>
       </c>
       <c r="H11" t="n">
-        <v>18130.9577</v>
+        <v>46376.5138</v>
       </c>
       <c r="I11" t="n">
-        <v>3101.8024</v>
+        <v>3155.004</v>
       </c>
       <c r="J11" t="n">
-        <v>475480.5847</v>
+        <v>918773.7833</v>
       </c>
       <c r="K11" t="n">
-        <v>4855.4976</v>
+        <v>12446.8059</v>
       </c>
       <c r="L11" t="n">
-        <v>11838.2448</v>
+        <v>21569.5341</v>
       </c>
       <c r="M11" t="n">
-        <v>12351.1392</v>
+        <v>38631.6153</v>
       </c>
       <c r="N11" t="n">
-        <v>24942.062</v>
+        <v>21879.5719</v>
       </c>
       <c r="O11" t="n">
-        <v>17603.0386</v>
+        <v>23817.9542</v>
       </c>
       <c r="P11" t="n">
-        <v>10843.1807</v>
+        <v>23455.5923</v>
       </c>
       <c r="Q11" t="n">
-        <v>31545.6638</v>
+        <v>57735.9481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56320</v>
+        <v>65104.6866</v>
       </c>
       <c r="C12" t="n">
-        <v>893</v>
+        <v>1501.4237</v>
       </c>
       <c r="D12" t="n">
-        <v>31399</v>
+        <v>33400.5386</v>
       </c>
       <c r="E12" t="n">
-        <v>41325</v>
+        <v>50290.4847</v>
       </c>
       <c r="F12" t="n">
-        <v>63300</v>
+        <v>117239.5706</v>
       </c>
       <c r="G12" t="n">
-        <v>41095</v>
+        <v>61239.1607</v>
       </c>
       <c r="H12" t="n">
-        <v>22597</v>
+        <v>49614.5683</v>
       </c>
       <c r="I12" t="n">
-        <v>3509</v>
+        <v>3351.0948</v>
       </c>
       <c r="J12" t="n">
-        <v>548358</v>
+        <v>948002.1949</v>
       </c>
       <c r="K12" t="n">
-        <v>5700</v>
+        <v>11781.0335</v>
       </c>
       <c r="L12" t="n">
-        <v>13638</v>
+        <v>23391.1667</v>
       </c>
       <c r="M12" t="n">
-        <v>15033</v>
+        <v>39934.5071</v>
       </c>
       <c r="N12" t="n">
-        <v>26297</v>
+        <v>20061.3428</v>
       </c>
       <c r="O12" t="n">
-        <v>22579</v>
+        <v>23820.8001</v>
       </c>
       <c r="P12" t="n">
-        <v>12739</v>
+        <v>24182.2369</v>
       </c>
       <c r="Q12" t="n">
-        <v>35012</v>
+        <v>60458.632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62432</v>
+        <v>69826.75629999999</v>
       </c>
       <c r="C13" t="n">
-        <v>997</v>
+        <v>1651.9948</v>
       </c>
       <c r="D13" t="n">
-        <v>33691</v>
+        <v>31552.6555</v>
       </c>
       <c r="E13" t="n">
-        <v>45338</v>
+        <v>52953.5958</v>
       </c>
       <c r="F13" t="n">
-        <v>69393</v>
+        <v>122405.4309</v>
       </c>
       <c r="G13" t="n">
-        <v>43149</v>
+        <v>62367.4728</v>
       </c>
       <c r="H13" t="n">
-        <v>25260</v>
+        <v>54117.022</v>
       </c>
       <c r="I13" t="n">
-        <v>4005</v>
+        <v>4138.2489</v>
       </c>
       <c r="J13" t="n">
-        <v>616292</v>
+        <v>997259.0124</v>
       </c>
       <c r="K13" t="n">
-        <v>6549</v>
+        <v>12158.6032</v>
       </c>
       <c r="L13" t="n">
-        <v>15539</v>
+        <v>25554.6325</v>
       </c>
       <c r="M13" t="n">
-        <v>18029</v>
+        <v>42337.0365</v>
       </c>
       <c r="N13" t="n">
-        <v>28770</v>
+        <v>20052.7377</v>
       </c>
       <c r="O13" t="n">
-        <v>26085</v>
+        <v>22997.107</v>
       </c>
       <c r="P13" t="n">
-        <v>15627</v>
+        <v>26917.8664</v>
       </c>
       <c r="Q13" t="n">
-        <v>37230</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>63740</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1095</v>
-      </c>
-      <c r="D14" t="n">
-        <v>37426</v>
-      </c>
-      <c r="E14" t="n">
-        <v>47697</v>
-      </c>
-      <c r="F14" t="n">
-        <v>74401</v>
-      </c>
-      <c r="G14" t="n">
-        <v>43517</v>
-      </c>
-      <c r="H14" t="n">
-        <v>28098</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4563</v>
-      </c>
-      <c r="J14" t="n">
-        <v>665245</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7217</v>
-      </c>
-      <c r="L14" t="n">
-        <v>17092</v>
-      </c>
-      <c r="M14" t="n">
-        <v>20298</v>
-      </c>
-      <c r="N14" t="n">
-        <v>27099</v>
-      </c>
-      <c r="O14" t="n">
-        <v>30107</v>
-      </c>
-      <c r="P14" t="n">
-        <v>17367</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>40690</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>68273.4115</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1292.9874</v>
-      </c>
-      <c r="D15" t="n">
-        <v>40746.2206</v>
-      </c>
-      <c r="E15" t="n">
-        <v>50062.8832</v>
-      </c>
-      <c r="F15" t="n">
-        <v>80978.3089</v>
-      </c>
-      <c r="G15" t="n">
-        <v>45516.5664</v>
-      </c>
-      <c r="H15" t="n">
-        <v>30937.2976</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5038</v>
-      </c>
-      <c r="J15" t="n">
-        <v>728098</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8292.8851</v>
-      </c>
-      <c r="L15" t="n">
-        <v>18006.1845</v>
-      </c>
-      <c r="M15" t="n">
-        <v>22157.2458</v>
-      </c>
-      <c r="N15" t="n">
-        <v>27260.3635</v>
-      </c>
-      <c r="O15" t="n">
-        <v>32013.1257</v>
-      </c>
-      <c r="P15" t="n">
-        <v>18897.6059</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>45002.5686</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>66953.94010000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1399.6111</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42336.8202</v>
-      </c>
-      <c r="E16" t="n">
-        <v>54001.8291</v>
-      </c>
-      <c r="F16" t="n">
-        <v>87346.46610000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>48217.2533</v>
-      </c>
-      <c r="H16" t="n">
-        <v>33501.6627</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5161</v>
-      </c>
-      <c r="J16" t="n">
-        <v>769557</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8914.9496</v>
-      </c>
-      <c r="L16" t="n">
-        <v>20238.1893</v>
-      </c>
-      <c r="M16" t="n">
-        <v>23766.7295</v>
-      </c>
-      <c r="N16" t="n">
-        <v>27403.1279</v>
-      </c>
-      <c r="O16" t="n">
-        <v>33073.2536</v>
-      </c>
-      <c r="P16" t="n">
-        <v>19637.5798</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>46802.1188</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>64906</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1767</v>
-      </c>
-      <c r="D17" t="n">
-        <v>41482</v>
-      </c>
-      <c r="E17" t="n">
-        <v>54051</v>
-      </c>
-      <c r="F17" t="n">
-        <v>88929</v>
-      </c>
-      <c r="G17" t="n">
-        <v>50053</v>
-      </c>
-      <c r="H17" t="n">
-        <v>33707</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5181</v>
-      </c>
-      <c r="J17" t="n">
-        <v>784578</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9204</v>
-      </c>
-      <c r="L17" t="n">
-        <v>22036</v>
-      </c>
-      <c r="M17" t="n">
-        <v>25163</v>
-      </c>
-      <c r="N17" t="n">
-        <v>25309</v>
-      </c>
-      <c r="O17" t="n">
-        <v>33849</v>
-      </c>
-      <c r="P17" t="n">
-        <v>19756</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>48453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>64482</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1516</v>
-      </c>
-      <c r="D18" t="n">
-        <v>43660</v>
-      </c>
-      <c r="E18" t="n">
-        <v>55056</v>
-      </c>
-      <c r="F18" t="n">
-        <v>92209</v>
-      </c>
-      <c r="G18" t="n">
-        <v>52254</v>
-      </c>
-      <c r="H18" t="n">
-        <v>35007</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4985</v>
-      </c>
-      <c r="J18" t="n">
-        <v>810933</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9952</v>
-      </c>
-      <c r="L18" t="n">
-        <v>25612</v>
-      </c>
-      <c r="M18" t="n">
-        <v>26537</v>
-      </c>
-      <c r="N18" t="n">
-        <v>18682</v>
-      </c>
-      <c r="O18" t="n">
-        <v>35217</v>
-      </c>
-      <c r="P18" t="n">
-        <v>20082</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>50036</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>70542</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1605</v>
-      </c>
-      <c r="D19" t="n">
-        <v>45517</v>
-      </c>
-      <c r="E19" t="n">
-        <v>50056</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100933</v>
-      </c>
-      <c r="G19" t="n">
-        <v>57003</v>
-      </c>
-      <c r="H19" t="n">
-        <v>36136</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4890</v>
-      </c>
-      <c r="J19" t="n">
-        <v>865464</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11297</v>
-      </c>
-      <c r="L19" t="n">
-        <v>28209</v>
-      </c>
-      <c r="M19" t="n">
-        <v>28816</v>
-      </c>
-      <c r="N19" t="n">
-        <v>24520</v>
-      </c>
-      <c r="O19" t="n">
-        <v>36267</v>
-      </c>
-      <c r="P19" t="n">
-        <v>20605</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>51031</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>68392</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1396</v>
-      </c>
-      <c r="D20" t="n">
-        <v>46784</v>
-      </c>
-      <c r="E20" t="n">
-        <v>50774</v>
-      </c>
-      <c r="F20" t="n">
-        <v>108439</v>
-      </c>
-      <c r="G20" t="n">
-        <v>59396</v>
-      </c>
-      <c r="H20" t="n">
-        <v>43763</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3963</v>
-      </c>
-      <c r="J20" t="n">
-        <v>922392</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11883</v>
-      </c>
-      <c r="L20" t="n">
-        <v>30185</v>
-      </c>
-      <c r="M20" t="n">
-        <v>44308</v>
-      </c>
-      <c r="N20" t="n">
-        <v>23119</v>
-      </c>
-      <c r="O20" t="n">
-        <v>37001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>21443</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>54250</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>66351.32309999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1506.962</v>
-      </c>
-      <c r="D21" t="n">
-        <v>36641.4167</v>
-      </c>
-      <c r="E21" t="n">
-        <v>49219.963</v>
-      </c>
-      <c r="F21" t="n">
-        <v>112008.6131</v>
-      </c>
-      <c r="G21" t="n">
-        <v>60615.8381</v>
-      </c>
-      <c r="H21" t="n">
-        <v>46376.5138</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3155.004</v>
-      </c>
-      <c r="J21" t="n">
-        <v>918773.7833</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12446.8059</v>
-      </c>
-      <c r="L21" t="n">
-        <v>21569.5341</v>
-      </c>
-      <c r="M21" t="n">
-        <v>38631.6153</v>
-      </c>
-      <c r="N21" t="n">
-        <v>21879.5719</v>
-      </c>
-      <c r="O21" t="n">
-        <v>23817.9542</v>
-      </c>
-      <c r="P21" t="n">
-        <v>23455.5923</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>57735.9481</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>65104.6866</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1501.4237</v>
-      </c>
-      <c r="D22" t="n">
-        <v>33400.5386</v>
-      </c>
-      <c r="E22" t="n">
-        <v>50290.4847</v>
-      </c>
-      <c r="F22" t="n">
-        <v>117239.5706</v>
-      </c>
-      <c r="G22" t="n">
-        <v>61239.1607</v>
-      </c>
-      <c r="H22" t="n">
-        <v>49614.5683</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3351.0948</v>
-      </c>
-      <c r="J22" t="n">
-        <v>948002.1949</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11781.0335</v>
-      </c>
-      <c r="L22" t="n">
-        <v>23391.1667</v>
-      </c>
-      <c r="M22" t="n">
-        <v>39934.5071</v>
-      </c>
-      <c r="N22" t="n">
-        <v>20061.3428</v>
-      </c>
-      <c r="O22" t="n">
-        <v>23820.8001</v>
-      </c>
-      <c r="P22" t="n">
-        <v>24182.2369</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>60458.632</v>
+        <v>63029.2671</v>
       </c>
     </row>
   </sheetData>
